--- a/exercisesLifeContingencies/test2_2021_22/equal_amortizations.xlsx
+++ b/exercisesLifeContingencies/test2_2021_22/equal_amortizations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -462,6 +462,16 @@
           <t>premium</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>annuity_level</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>premium_leveled</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -473,13 +483,19 @@
         <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03254276471694487</v>
+        <v>0.03180428173371896</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3890500396927862</v>
+        <v>0.3782886007398258</v>
       </c>
       <c r="E2" t="n">
-        <v>3055.332440988521</v>
+        <v>3011.853682950033</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13.92317044246741</v>
+      </c>
+      <c r="G2" t="n">
+        <v>216.319529764823</v>
       </c>
     </row>
     <row r="3">
@@ -492,13 +508,19 @@
         <v>35</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01787383266679135</v>
+        <v>0.01750452826003326</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1944355141414537</v>
+        <v>0.1892972727053334</v>
       </c>
       <c r="E3" t="n">
-        <v>1877.897407918888</v>
+        <v>1854.297335855797</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14.00441067997329</v>
+      </c>
+      <c r="G3" t="n">
+        <v>132.40809472315</v>
       </c>
     </row>
     <row r="4">
@@ -511,13 +533,19 @@
         <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03674672179838318</v>
+        <v>0.03592843138828588</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4310815644043698</v>
+        <v>0.4191828682618172</v>
       </c>
       <c r="E4" t="n">
-        <v>3535.423779094207</v>
+        <v>3487.267585278737</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13.8905593294462</v>
+      </c>
+      <c r="G4" t="n">
+        <v>251.0530715553101</v>
       </c>
     </row>
   </sheetData>
